--- a/Proyecto_final/Resultados/reporte_aviones_posibles_consultados.xlsx
+++ b/Proyecto_final/Resultados/reporte_aviones_posibles_consultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +446,128 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>horas_vuelo</t>
-        </is>
+          <t>capacidad_pasajeros</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ABC108</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Vuelo Privado</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ABC112</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fumigación</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ABC126</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ambulancia Aérea</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ABC141</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vuelo Privado</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ABC160</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vuelo Privado</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ABC178</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fumigación</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ABC189</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vuelo Privado</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ABC198</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vuelo Privado</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
